--- a/爆炒江湖.xlsx
+++ b/爆炒江湖.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>姓名</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>鱼</t>
+  </si>
+  <si>
+    <t>选中次数</t>
+  </si>
+  <si>
+    <t>炒菜能够被选中次数</t>
   </si>
   <si>
     <t>熊麓</t>
@@ -227,31 +233,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,31 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,24 +317,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +451,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,133 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +570,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,82 +665,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,15 +1143,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1179,10 +1189,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -1214,10 +1230,16 @@
       <c r="K2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>69</v>
@@ -1249,10 +1271,16 @@
       <c r="K3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -1284,10 +1312,16 @@
       <c r="K4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1319,10 +1353,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>94</v>
@@ -1354,10 +1394,16 @@
       <c r="K6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1389,10 +1435,16 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -1424,10 +1476,16 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1459,10 +1517,16 @@
       <c r="K9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -1494,10 +1558,16 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1529,10 +1599,16 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1564,10 +1640,16 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1598,6 +1680,12 @@
       </c>
       <c r="K13">
         <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1622,18 +1710,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1644,7 +1732,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1655,7 +1743,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1666,7 +1754,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1677,7 +1765,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1688,7 +1776,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1709,14 +1797,14 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1737,15 +1825,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1771,7 +1859,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1792,7 +1880,7 @@
         <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>108</v>
@@ -1800,7 +1888,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -1821,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>90</v>
@@ -1829,7 +1917,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1850,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>89</v>
@@ -1858,7 +1946,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1879,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6">
         <v>64</v>
@@ -1887,7 +1975,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1908,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>60</v>
@@ -1916,7 +2004,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1937,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -1945,7 +2033,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1966,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>46</v>
@@ -1974,7 +2062,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1995,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>37</v>
@@ -2003,7 +2091,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -2024,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <v>35</v>
@@ -2032,7 +2120,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2053,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I12">
         <v>31</v>
@@ -2061,7 +2149,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2082,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I13">
         <v>30</v>
@@ -2090,7 +2178,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2116,7 +2204,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>25</v>
@@ -2137,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I15">
         <v>21</v>
@@ -2145,7 +2233,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2166,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16">
         <v>18</v>
@@ -2174,7 +2262,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2195,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I17">
         <v>16</v>
@@ -2203,7 +2291,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -2224,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I18">
         <v>16</v>
@@ -2232,7 +2320,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2253,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I19">
         <v>9</v>
@@ -2261,7 +2349,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2282,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2290,7 +2378,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2311,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I21">
         <v>7</v>
@@ -2319,7 +2407,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2340,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I22">
         <v>7</v>
@@ -2348,7 +2436,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -2369,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I23">
         <v>5</v>

--- a/爆炒江湖.xlsx
+++ b/爆炒江湖.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="cook" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>姓名</t>
   </si>
@@ -348,6 +348,50 @@
   </si>
   <si>
     <t>choosed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申公子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣子姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腕儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糯米团子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州炒饭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -366,6 +410,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -698,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -838,37 +883,37 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1281,6 +1326,334 @@
         <v>1</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
@@ -1295,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1415,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1438,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1461,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1484,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1499,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1679,20 +2052,20 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
+      <c r="A7" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1700,19 +2073,16 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
       <c r="I7">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
+      <c r="A8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1724,50 +2094,47 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
       <c r="I8">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1782,30 +2149,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
       </c>
       <c r="I10">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
+      <c r="A11" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1814,21 +2181,18 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1837,24 +2201,24 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I12">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1869,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I13">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1892,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1901,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>40</v>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1924,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1932,16 +2296,19 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
       <c r="I15">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1953,30 +2320,30 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I16">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1988,15 +2355,15 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I17">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2008,27 +2375,24 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2046,24 +2410,24 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I19">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2078,44 +2442,44 @@
         <v>47</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>15</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2130,18 +2494,18 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
         <v>47</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2150,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2165,35 +2529,122 @@
         <v>47</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B24">
+      <c r="B27">
         <v>10</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="I24">
+      <c r="I27">
         <v>5</v>
       </c>
     </row>
